--- a/input/Operation_Override_COP.xlsx
+++ b/input/Operation_Override_COP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yannonghuang/Documents/personal/projects/SRI/Import prospects/Adexa/Innolight/PoC 2023/Adexa Feeds/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6E8EDFE-A6B1-5247-BA75-7BD95CC29471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE7475E-9C59-1D44-AE91-A13DEC382D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="2540" windowWidth="36100" windowHeight="24960" xr2:uid="{ED6B695D-C9EA-5E4A-8D46-36D5C0FEF91F}"/>
+    <workbookView xWindow="0" yWindow="1600" windowWidth="36100" windowHeight="18040" xr2:uid="{ED6B695D-C9EA-5E4A-8D46-36D5C0FEF91F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="59">
   <si>
     <t>Pocess</t>
   </si>
@@ -247,6 +247,10 @@
   </si>
   <si>
     <t>postprocessing</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPH</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -349,7 +353,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,6 +370,7 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -700,20 +705,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD8230C9-4DDA-FA44-9CA3-4E4EAE5F3BB2}">
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="108" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="2" max="2" width="24.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -727,16 +732,19 @@
         <v>3</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -749,12 +757,16 @@
       <c r="D2" s="3">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="E2" s="7">
-        <f>1/IF(AND(C2&lt;&gt;0, D2&lt;&gt;0),MIN(C2,D2),(C2+D2))</f>
-        <v>14.285714285714285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="E2" s="8">
+        <f>60/(IF(AND(C2&lt;&gt;0, D2&lt;&gt;0),MAX(C2,D2),(C2+D2)))</f>
+        <v>80.12820512820511</v>
+      </c>
+      <c r="F2" s="7">
+        <f>(IF(AND(C2&lt;&gt;0, D2&lt;&gt;0),MAX(C2,D2),(C2+D2)))/60</f>
+        <v>1.2480000000000002E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -767,12 +779,16 @@
       <c r="D3" s="3">
         <v>0.1</v>
       </c>
-      <c r="E3" s="7">
-        <f>1/IF(AND(C3&lt;&gt;0, D3&lt;&gt;0),MIN(C3,D3),(C3+D3))</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="E3" s="8">
+        <f>60/(IF(AND(C3&lt;&gt;0, D3&lt;&gt;0),MAX(C3,D3),(C3+D3)))</f>
+        <v>600</v>
+      </c>
+      <c r="F3" s="7">
+        <f>(IF(AND(C3&lt;&gt;0, D3&lt;&gt;0),MAX(C3,D3),(C3+D3)))/60</f>
+        <v>1.6666666666666668E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -785,12 +801,16 @@
       <c r="D4" s="3">
         <v>2.62</v>
       </c>
-      <c r="E4" s="7">
-        <f>1/IF(AND(C4&lt;&gt;0, D4&lt;&gt;0),MIN(C4,D4),(C4+D4))</f>
-        <v>0.73529411764705888</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="E4" s="8">
+        <f t="shared" ref="E3:E46" si="0">60/(IF(AND(C4&lt;&gt;0, D4&lt;&gt;0),MAX(C4,D4),(C4+D4)))</f>
+        <v>22.900763358778626</v>
+      </c>
+      <c r="F4" s="7">
+        <f>(IF(AND(C4&lt;&gt;0, D4&lt;&gt;0),MAX(C4,D4),(C4+D4)))/60</f>
+        <v>4.3666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -803,12 +823,16 @@
       <c r="D5" s="3">
         <v>0.2</v>
       </c>
-      <c r="E5" s="7">
-        <f>1/IF(AND(C5&lt;&gt;0, D5&lt;&gt;0),MIN(C5,D5),(C5+D5))</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="E5" s="8">
+        <f t="shared" si="0"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="F5" s="7">
+        <f>(IF(AND(C5&lt;&gt;0, D5&lt;&gt;0),MAX(C5,D5),(C5+D5)))/60</f>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -821,12 +845,16 @@
       <c r="D6" s="3">
         <v>0.68340000000000001</v>
       </c>
-      <c r="E6" s="7">
-        <f>1/IF(AND(C6&lt;&gt;0, D6&lt;&gt;0),MIN(C6,D6),(C6+D6))</f>
-        <v>1.4632718759145449</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>34.403669724770644</v>
+      </c>
+      <c r="F6" s="7">
+        <f>(IF(AND(C6&lt;&gt;0, D6&lt;&gt;0),MAX(C6,D6),(C6+D6)))/60</f>
+        <v>2.9066666666666668E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -839,12 +867,16 @@
       <c r="D7" s="3">
         <v>0</v>
       </c>
-      <c r="E7" s="7">
-        <f>1/IF(AND(C7&lt;&gt;0, D7&lt;&gt;0),MIN(C7,D7),(C7+D7))</f>
-        <v>3.3057851239669418</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>198.34710743801651</v>
+      </c>
+      <c r="F7" s="7">
+        <f>(IF(AND(C7&lt;&gt;0, D7&lt;&gt;0),MAX(C7,D7),(C7+D7)))/60</f>
+        <v>5.0416666666666674E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -857,12 +889,16 @@
       <c r="D8" s="3">
         <v>0</v>
       </c>
-      <c r="E8" s="7">
-        <f>1/IF(AND(C8&lt;&gt;0, D8&lt;&gt;0),MIN(C8,D8),(C8+D8))</f>
-        <v>2.2573363431151239</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>135.44018058690742</v>
+      </c>
+      <c r="F8" s="7">
+        <f>(IF(AND(C8&lt;&gt;0, D8&lt;&gt;0),MAX(C8,D8),(C8+D8)))/60</f>
+        <v>7.3833333333333346E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
         <v>5</v>
       </c>
@@ -875,12 +911,16 @@
       <c r="D9" s="3">
         <v>0</v>
       </c>
-      <c r="E9" s="7">
-        <f>1/IF(AND(C9&lt;&gt;0, D9&lt;&gt;0),MIN(C9,D9),(C9+D9))</f>
-        <v>2.2573363431151239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>135.44018058690742</v>
+      </c>
+      <c r="F9" s="7">
+        <f>(IF(AND(C9&lt;&gt;0, D9&lt;&gt;0),MAX(C9,D9),(C9+D9)))/60</f>
+        <v>7.3833333333333346E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
         <v>5</v>
       </c>
@@ -893,12 +933,16 @@
       <c r="D10" s="3">
         <v>0</v>
       </c>
-      <c r="E10" s="7">
-        <f>1/IF(AND(C10&lt;&gt;0, D10&lt;&gt;0),MIN(C10,D10),(C10+D10))</f>
-        <v>2.9761904761904758</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>178.57142857142856</v>
+      </c>
+      <c r="F10" s="7">
+        <f>(IF(AND(C10&lt;&gt;0, D10&lt;&gt;0),MAX(C10,D10),(C10+D10)))/60</f>
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
         <v>5</v>
       </c>
@@ -911,12 +955,16 @@
       <c r="D11" s="3">
         <v>0</v>
       </c>
-      <c r="E11" s="7">
-        <f>1/IF(AND(C11&lt;&gt;0, D11&lt;&gt;0),MIN(C11,D11),(C11+D11))</f>
-        <v>2.9761904761904758</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>178.57142857142856</v>
+      </c>
+      <c r="F11" s="7">
+        <f>(IF(AND(C11&lt;&gt;0, D11&lt;&gt;0),MAX(C11,D11),(C11+D11)))/60</f>
+        <v>5.5999999999999999E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
         <v>5</v>
       </c>
@@ -929,12 +977,16 @@
       <c r="D12" s="3">
         <v>0.28000000000000003</v>
       </c>
-      <c r="E12" s="7">
-        <f t="shared" ref="E12:E46" si="0">1/IF(AND(C12&lt;&gt;0, D12&lt;&gt;0),MIN(C12,D12),(C12+D12))</f>
-        <v>3.5714285714285712</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>13.793103448275863</v>
+      </c>
+      <c r="F12" s="7">
+        <f>(IF(AND(C12&lt;&gt;0, D12&lt;&gt;0),MAX(C12,D12),(C12+D12)))/60</f>
+        <v>7.2499999999999995E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
         <v>5</v>
       </c>
@@ -947,16 +999,20 @@
       <c r="D13" s="3">
         <v>2.14</v>
       </c>
-      <c r="E13" s="7">
-        <f t="shared" si="0"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="G13" s="7">
-        <f>SUM(E14)</f>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>28.037383177570092</v>
+      </c>
+      <c r="F13" s="7">
+        <f>(IF(AND(C13&lt;&gt;0, D13&lt;&gt;0),MAX(C13,D13),(C13+D13)))/60</f>
+        <v>3.5666666666666666E-2</v>
+      </c>
+      <c r="H13" s="7">
+        <f>SUM(F14)</f>
+        <v>3.3333333333333332E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
         <v>5</v>
       </c>
@@ -967,12 +1023,16 @@
         <v>0.02</v>
       </c>
       <c r="D14" s="3"/>
-      <c r="E14" s="7">
-        <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>3000</v>
+      </c>
+      <c r="F14" s="7">
+        <f>(IF(AND(C14&lt;&gt;0, D14&lt;&gt;0),MAX(C14,D14),(C14+D14)))/60</f>
+        <v>3.3333333333333332E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
         <v>7</v>
       </c>
@@ -985,12 +1045,16 @@
       <c r="D15" s="3">
         <v>0.03</v>
       </c>
-      <c r="E15" s="7">
-        <f t="shared" si="0"/>
-        <v>33.333333333333336</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>103.44827586206895</v>
+      </c>
+      <c r="F15" s="7">
+        <f>(IF(AND(C15&lt;&gt;0, D15&lt;&gt;0),MAX(C15,D15),(C15+D15)))/60</f>
+        <v>9.6666666666666672E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -1003,12 +1067,16 @@
       <c r="D16" s="3">
         <v>0</v>
       </c>
-      <c r="E16" s="7">
-        <f t="shared" si="0"/>
-        <v>11.520737327188938</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>691.24423963133631</v>
+      </c>
+      <c r="F16" s="7">
+        <f>(IF(AND(C16&lt;&gt;0, D16&lt;&gt;0),MAX(C16,D16),(C16+D16)))/60</f>
+        <v>1.4466666666666668E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
         <v>9</v>
       </c>
@@ -1021,12 +1089,16 @@
       <c r="D17" s="3">
         <v>0</v>
       </c>
-      <c r="E17" s="7">
-        <f t="shared" si="0"/>
-        <v>0.74626865671641784</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="E17" s="8">
+        <f t="shared" si="0"/>
+        <v>44.776119402985074</v>
+      </c>
+      <c r="F17" s="7">
+        <f>(IF(AND(C17&lt;&gt;0, D17&lt;&gt;0),MAX(C17,D17),(C17+D17)))/60</f>
+        <v>2.2333333333333334E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -1039,16 +1111,20 @@
       <c r="D18" s="3">
         <v>1.8626</v>
       </c>
-      <c r="E18" s="7">
-        <f t="shared" si="0"/>
-        <v>0.53688392569526466</v>
+      <c r="E18" s="8">
+        <f t="shared" si="0"/>
+        <v>17.55001755001755</v>
       </c>
       <c r="F18" s="7">
-        <f>SUM(E15:E17)</f>
-        <v>45.600339317238692</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
+        <f>(IF(AND(C18&lt;&gt;0, D18&lt;&gt;0),MAX(C18,D18),(C18+D18)))/60</f>
+        <v>5.6980000000000003E-2</v>
+      </c>
+      <c r="G18" s="7">
+        <f>SUM(F15:F17)</f>
+        <v>3.3446666666666666E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1061,12 +1137,16 @@
       <c r="D19" s="3">
         <v>0.41200000000000003</v>
       </c>
-      <c r="E19" s="7">
-        <f t="shared" si="0"/>
-        <v>2.4271844660194173</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="E19" s="8">
+        <f t="shared" si="0"/>
+        <v>64.243267840890837</v>
+      </c>
+      <c r="F19" s="7">
+        <f>(IF(AND(C19&lt;&gt;0, D19&lt;&gt;0),MAX(C19,D19),(C19+D19)))/60</f>
+        <v>1.5565833333333334E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1079,12 +1159,16 @@
       <c r="D20" s="3">
         <v>0</v>
       </c>
-      <c r="E20" s="7">
-        <f t="shared" si="0"/>
-        <v>0.85470085470085477</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="E20" s="8">
+        <f t="shared" si="0"/>
+        <v>51.282051282051285</v>
+      </c>
+      <c r="F20" s="7">
+        <f>(IF(AND(C20&lt;&gt;0, D20&lt;&gt;0),MAX(C20,D20),(C20+D20)))/60</f>
+        <v>1.95E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1097,12 +1181,16 @@
       <c r="D21" s="3">
         <v>0</v>
       </c>
-      <c r="E21" s="7">
-        <f t="shared" si="0"/>
-        <v>5.3937432578209279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="E21" s="8">
+        <f t="shared" si="0"/>
+        <v>323.62459546925567</v>
+      </c>
+      <c r="F21" s="7">
+        <f>(IF(AND(C21&lt;&gt;0, D21&lt;&gt;0),MAX(C21,D21),(C21+D21)))/60</f>
+        <v>3.0900000000000003E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1115,12 +1203,16 @@
       <c r="D22" s="3">
         <v>0</v>
       </c>
-      <c r="E22" s="7">
-        <f t="shared" si="0"/>
-        <v>5.2631578947368425</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="E22" s="8">
+        <f t="shared" si="0"/>
+        <v>315.78947368421052</v>
+      </c>
+      <c r="F22" s="7">
+        <f>(IF(AND(C22&lt;&gt;0, D22&lt;&gt;0),MAX(C22,D22),(C22+D22)))/60</f>
+        <v>3.1666666666666666E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
         <v>9</v>
       </c>
@@ -1133,12 +1225,16 @@
       <c r="D23" s="3">
         <v>0.53559999999999997</v>
       </c>
-      <c r="E23" s="7">
-        <f t="shared" si="0"/>
-        <v>1.8670649738610905</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="E23" s="8">
+        <f t="shared" si="0"/>
+        <v>63.505503810330225</v>
+      </c>
+      <c r="F23" s="7">
+        <f>(IF(AND(C23&lt;&gt;0, D23&lt;&gt;0),MAX(C23,D23),(C23+D23)))/60</f>
+        <v>1.5746666666666669E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
         <v>9</v>
       </c>
@@ -1151,16 +1247,20 @@
       <c r="D24" s="3">
         <v>0.8</v>
       </c>
-      <c r="E24" s="7">
-        <f t="shared" si="0"/>
-        <v>1.25</v>
+      <c r="E24" s="8">
+        <f t="shared" si="0"/>
+        <v>30.033036339973972</v>
       </c>
       <c r="F24" s="7">
-        <f>SUM(E22:E23)</f>
-        <v>7.130222868597933</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
+        <f>(IF(AND(C24&lt;&gt;0, D24&lt;&gt;0),MAX(C24,D24),(C24+D24)))/60</f>
+        <v>3.3296666666666669E-2</v>
+      </c>
+      <c r="G24" s="7">
+        <f>SUM(F22:F23)</f>
+        <v>1.8913333333333338E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
         <v>9</v>
       </c>
@@ -1173,16 +1273,20 @@
       <c r="D25" s="3">
         <v>0.45</v>
       </c>
-      <c r="E25" s="7">
-        <f t="shared" si="0"/>
-        <v>6.1614294516327792</v>
-      </c>
-      <c r="G25" s="7">
-        <f>SUM(E26:E27)</f>
-        <v>5.6138114430755692</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="E25" s="8">
+        <f t="shared" si="0"/>
+        <v>133.33333333333334</v>
+      </c>
+      <c r="F25" s="7">
+        <f>(IF(AND(C25&lt;&gt;0, D25&lt;&gt;0),MAX(C25,D25),(C25+D25)))/60</f>
+        <v>7.5000000000000006E-3</v>
+      </c>
+      <c r="H25" s="7">
+        <f>SUM(F26:F27)</f>
+        <v>2.321666666666667E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
         <v>9</v>
       </c>
@@ -1195,12 +1299,16 @@
       <c r="D26" s="3">
         <v>0</v>
       </c>
-      <c r="E26" s="7">
-        <f t="shared" si="0"/>
-        <v>0.84509422800642275</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="E26" s="8">
+        <f t="shared" si="0"/>
+        <v>50.70565368038536</v>
+      </c>
+      <c r="F26" s="7">
+        <f>(IF(AND(C26&lt;&gt;0, D26&lt;&gt;0),MAX(C26,D26),(C26+D26)))/60</f>
+        <v>1.9721666666666669E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
         <v>9</v>
       </c>
@@ -1213,12 +1321,16 @@
       <c r="D27" s="3">
         <v>0</v>
       </c>
-      <c r="E27" s="7">
-        <f t="shared" si="0"/>
-        <v>4.7687172150691461</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="E27" s="8">
+        <f t="shared" si="0"/>
+        <v>286.12303290414877</v>
+      </c>
+      <c r="F27" s="7">
+        <f>(IF(AND(C27&lt;&gt;0, D27&lt;&gt;0),MAX(C27,D27),(C27+D27)))/60</f>
+        <v>3.4950000000000003E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="4" t="s">
         <v>16</v>
       </c>
@@ -1231,12 +1343,16 @@
       <c r="D28" s="3">
         <v>0</v>
       </c>
-      <c r="E28" s="7">
-        <f t="shared" si="0"/>
-        <v>1.4285714285714286</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="E28" s="8">
+        <f t="shared" si="0"/>
+        <v>85.714285714285722</v>
+      </c>
+      <c r="F28" s="7">
+        <f>(IF(AND(C28&lt;&gt;0, D28&lt;&gt;0),MAX(C28,D28),(C28+D28)))/60</f>
+        <v>1.1666666666666665E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="4" t="s">
         <v>16</v>
       </c>
@@ -1249,16 +1365,20 @@
       <c r="D29" s="3">
         <v>0.06</v>
       </c>
-      <c r="E29" s="7">
-        <f t="shared" si="0"/>
-        <v>16.666666666666668</v>
+      <c r="E29" s="8">
+        <f t="shared" si="0"/>
+        <v>16.835016835016834</v>
       </c>
       <c r="F29" s="7">
-        <f>SUM(E28)</f>
-        <v>1.4285714285714286</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <f>(IF(AND(C29&lt;&gt;0, D29&lt;&gt;0),MAX(C29,D29),(C29+D29)))/60</f>
+        <v>5.9400000000000001E-2</v>
+      </c>
+      <c r="G29" s="7">
+        <f>SUM(F28)</f>
+        <v>1.1666666666666665E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="4" t="s">
         <v>16</v>
       </c>
@@ -1271,12 +1391,16 @@
       <c r="D30" s="3">
         <v>4.3239999999999998</v>
       </c>
-      <c r="E30" s="7">
-        <f t="shared" si="0"/>
-        <v>0.5477651183172656</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="E30" s="8">
+        <f t="shared" si="0"/>
+        <v>13.876040703052729</v>
+      </c>
+      <c r="F30" s="7">
+        <f>(IF(AND(C30&lt;&gt;0, D30&lt;&gt;0),MAX(C30,D30),(C30+D30)))/60</f>
+        <v>7.2066666666666668E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="4" t="s">
         <v>16</v>
       </c>
@@ -1289,12 +1413,16 @@
       <c r="D31" s="3">
         <v>3.8576000000000001</v>
       </c>
-      <c r="E31" s="7">
-        <f t="shared" si="0"/>
-        <v>0.25922853587722938</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="E31" s="8">
+        <f t="shared" si="0"/>
+        <v>13.870908082115774</v>
+      </c>
+      <c r="F31" s="7">
+        <f>(IF(AND(C31&lt;&gt;0, D31&lt;&gt;0),MAX(C31,D31),(C31+D31)))/60</f>
+        <v>7.2093333333333343E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="4" t="s">
         <v>16</v>
       </c>
@@ -1307,12 +1435,16 @@
       <c r="D32" s="3">
         <v>0</v>
       </c>
-      <c r="E32" s="7">
-        <f t="shared" si="0"/>
-        <v>1.4052838673412029</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="E32" s="8">
+        <f t="shared" si="0"/>
+        <v>84.317032040472171</v>
+      </c>
+      <c r="F32" s="7">
+        <f>(IF(AND(C32&lt;&gt;0, D32&lt;&gt;0),MAX(C32,D32),(C32+D32)))/60</f>
+        <v>1.1860000000000001E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="4" t="s">
         <v>16</v>
       </c>
@@ -1325,12 +1457,16 @@
       <c r="D33" s="3">
         <v>0</v>
       </c>
-      <c r="E33" s="7">
-        <f t="shared" si="0"/>
-        <v>2.0032051282051282</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="E33" s="8">
+        <f t="shared" si="0"/>
+        <v>120.19230769230769</v>
+      </c>
+      <c r="F33" s="7">
+        <f>(IF(AND(C33&lt;&gt;0, D33&lt;&gt;0),MAX(C33,D33),(C33+D33)))/60</f>
+        <v>8.3199999999999993E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="4" t="s">
         <v>16</v>
       </c>
@@ -1343,12 +1479,16 @@
       <c r="D34" s="3">
         <v>0</v>
       </c>
-      <c r="E34" s="7">
-        <f t="shared" si="0"/>
-        <v>3.2467532467532463</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="E34" s="8">
+        <f t="shared" si="0"/>
+        <v>194.80519480519476</v>
+      </c>
+      <c r="F34" s="7">
+        <f>(IF(AND(C34&lt;&gt;0, D34&lt;&gt;0),MAX(C34,D34),(C34+D34)))/60</f>
+        <v>5.1333333333333344E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="4" t="s">
         <v>16</v>
       </c>
@@ -1361,20 +1501,24 @@
       <c r="D35" s="3">
         <v>0</v>
       </c>
-      <c r="E35" s="7">
-        <f t="shared" si="0"/>
-        <v>0.70126227208976155</v>
+      <c r="E35" s="8">
+        <f t="shared" si="0"/>
+        <v>42.075736325385698</v>
       </c>
       <c r="F35" s="7">
-        <f>SUM(E32:E34)</f>
-        <v>6.6552422422995772</v>
+        <f>(IF(AND(C35&lt;&gt;0, D35&lt;&gt;0),MAX(C35,D35),(C35+D35)))/60</f>
+        <v>2.3766666666666665E-2</v>
       </c>
       <c r="G35" s="7">
-        <f>SUM(E36:E37)</f>
-        <v>2.6190476190476191</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <f>SUM(F32:F34)</f>
+        <v>2.5313333333333334E-2</v>
+      </c>
+      <c r="H35" s="7">
+        <f>SUM(F36:F37)</f>
+        <v>2.5666666666666664E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="4" t="s">
         <v>16</v>
       </c>
@@ -1387,12 +1531,16 @@
       <c r="D36" s="3">
         <v>0</v>
       </c>
-      <c r="E36" s="7">
-        <f t="shared" si="0"/>
-        <v>1.1904761904761905</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+      <c r="E36" s="8">
+        <f t="shared" si="0"/>
+        <v>71.428571428571431</v>
+      </c>
+      <c r="F36" s="7">
+        <f>(IF(AND(C36&lt;&gt;0, D36&lt;&gt;0),MAX(C36,D36),(C36+D36)))/60</f>
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="4" t="s">
         <v>16</v>
       </c>
@@ -1405,12 +1553,16 @@
       <c r="D37" s="3">
         <v>0</v>
       </c>
-      <c r="E37" s="7">
-        <f t="shared" si="0"/>
-        <v>1.4285714285714286</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+      <c r="E37" s="8">
+        <f t="shared" si="0"/>
+        <v>85.714285714285722</v>
+      </c>
+      <c r="F37" s="7">
+        <f>(IF(AND(C37&lt;&gt;0, D37&lt;&gt;0),MAX(C37,D37),(C37+D37)))/60</f>
+        <v>1.1666666666666665E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="4" t="s">
         <v>23</v>
       </c>
@@ -1423,12 +1575,16 @@
       <c r="D38" s="3">
         <v>1.4200000000000002</v>
       </c>
-      <c r="E38" s="7">
-        <f t="shared" si="0"/>
-        <v>0.70422535211267601</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+      <c r="E38" s="8">
+        <f t="shared" si="0"/>
+        <v>16.021361815754339</v>
+      </c>
+      <c r="F38" s="7">
+        <f>(IF(AND(C38&lt;&gt;0, D38&lt;&gt;0),MAX(C38,D38),(C38+D38)))/60</f>
+        <v>6.2416666666666669E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="4" t="s">
         <v>23</v>
       </c>
@@ -1441,12 +1597,16 @@
       <c r="D39" s="3">
         <v>1.02</v>
       </c>
-      <c r="E39" s="7">
-        <f t="shared" si="0"/>
-        <v>2.0424836601307188</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+      <c r="E39" s="8">
+        <f t="shared" si="0"/>
+        <v>58.823529411764703</v>
+      </c>
+      <c r="F39" s="7">
+        <f>(IF(AND(C39&lt;&gt;0, D39&lt;&gt;0),MAX(C39,D39),(C39+D39)))/60</f>
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="4" t="s">
         <v>23</v>
       </c>
@@ -1459,12 +1619,16 @@
       <c r="D40" s="3">
         <v>1.2</v>
       </c>
-      <c r="E40" s="7">
-        <f t="shared" si="0"/>
-        <v>13.333333333333332</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+      <c r="E40" s="8">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F40" s="7">
+        <f>(IF(AND(C40&lt;&gt;0, D40&lt;&gt;0),MAX(C40,D40),(C40+D40)))/60</f>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="4" t="s">
         <v>23</v>
       </c>
@@ -1477,12 +1641,16 @@
       <c r="D41" s="3">
         <v>2.8</v>
       </c>
-      <c r="E41" s="7">
-        <f t="shared" si="0"/>
-        <v>4.8780487804878048</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+      <c r="E41" s="8">
+        <f t="shared" si="0"/>
+        <v>21.428571428571431</v>
+      </c>
+      <c r="F41" s="7">
+        <f>(IF(AND(C41&lt;&gt;0, D41&lt;&gt;0),MAX(C41,D41),(C41+D41)))/60</f>
+        <v>4.6666666666666662E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="4" t="s">
         <v>23</v>
       </c>
@@ -1495,12 +1663,16 @@
       <c r="D42" s="3">
         <v>5.9199998666666671</v>
       </c>
-      <c r="E42" s="7">
-        <f t="shared" si="0"/>
-        <v>0.45905251560778554</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+      <c r="E42" s="8">
+        <f t="shared" si="0"/>
+        <v>10.135135363403949</v>
+      </c>
+      <c r="F42" s="7">
+        <f>(IF(AND(C42&lt;&gt;0, D42&lt;&gt;0),MAX(C42,D42),(C42+D42)))/60</f>
+        <v>9.8666664444444455E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="4" t="s">
         <v>23</v>
       </c>
@@ -1513,12 +1685,16 @@
       <c r="D43" s="3">
         <v>3.64</v>
       </c>
-      <c r="E43" s="7">
-        <f t="shared" si="0"/>
-        <v>1.5024038461538463</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+      <c r="E43" s="8">
+        <f t="shared" si="0"/>
+        <v>16.483516483516482</v>
+      </c>
+      <c r="F43" s="7">
+        <f>(IF(AND(C43&lt;&gt;0, D43&lt;&gt;0),MAX(C43,D43),(C43+D43)))/60</f>
+        <v>6.0666666666666667E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="4" t="s">
         <v>23</v>
       </c>
@@ -1531,12 +1707,16 @@
       <c r="D44" s="3">
         <v>1.04</v>
       </c>
-      <c r="E44" s="7">
-        <f t="shared" si="0"/>
-        <v>1.9230769230769229</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+      <c r="E44" s="8">
+        <f t="shared" si="0"/>
+        <v>57.692307692307693</v>
+      </c>
+      <c r="F44" s="7">
+        <f>(IF(AND(C44&lt;&gt;0, D44&lt;&gt;0),MAX(C44,D44),(C44+D44)))/60</f>
+        <v>1.7333333333333333E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="4" t="s">
         <v>23</v>
       </c>
@@ -1549,12 +1729,16 @@
       <c r="D45" s="3">
         <v>0</v>
       </c>
-      <c r="E45" s="7">
-        <f t="shared" si="0"/>
-        <v>0.67567567567567555</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+      <c r="E45" s="8">
+        <f t="shared" si="0"/>
+        <v>40.540540540540533</v>
+      </c>
+      <c r="F45" s="7">
+        <f>(IF(AND(C45&lt;&gt;0, D45&lt;&gt;0),MAX(C45,D45),(C45+D45)))/60</f>
+        <v>2.466666666666667E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="4" t="s">
         <v>23</v>
       </c>
@@ -1567,9 +1751,13 @@
       <c r="D46" s="3">
         <v>0</v>
       </c>
-      <c r="E46" s="7">
-        <f t="shared" si="0"/>
-        <v>0.86956521739130443</v>
+      <c r="E46" s="8">
+        <f t="shared" si="0"/>
+        <v>52.173913043478265</v>
+      </c>
+      <c r="F46" s="7">
+        <f>(IF(AND(C46&lt;&gt;0, D46&lt;&gt;0),MAX(C46,D46),(C46+D46)))/60</f>
+        <v>1.9166666666666665E-2</v>
       </c>
     </row>
   </sheetData>
